--- a/Code/Results/Cases/Case_5_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_115/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027127566506545</v>
+        <v>1.048995049297711</v>
       </c>
       <c r="D2">
-        <v>1.04458414487615</v>
+        <v>1.055427139596091</v>
       </c>
       <c r="E2">
-        <v>1.040033980823521</v>
+        <v>1.05617780124415</v>
       </c>
       <c r="F2">
-        <v>1.051196745671486</v>
+        <v>1.066690171761095</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061500048095594</v>
+        <v>1.049910084595802</v>
       </c>
       <c r="J2">
-        <v>1.048526101653302</v>
+        <v>1.054035845434294</v>
       </c>
       <c r="K2">
-        <v>1.055455423372811</v>
+        <v>1.058167627690303</v>
       </c>
       <c r="L2">
-        <v>1.050962391221008</v>
+        <v>1.058916226787732</v>
       </c>
       <c r="M2">
-        <v>1.061986093412638</v>
+        <v>1.069400043080337</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031109765452611</v>
+        <v>1.049845166754432</v>
       </c>
       <c r="D3">
-        <v>1.047577596294197</v>
+        <v>1.05608685637099</v>
       </c>
       <c r="E3">
-        <v>1.043277241495191</v>
+        <v>1.056915886730985</v>
       </c>
       <c r="F3">
-        <v>1.054614257435831</v>
+        <v>1.067465853250328</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062864960075611</v>
+        <v>1.050145554399191</v>
       </c>
       <c r="J3">
-        <v>1.050786834838007</v>
+        <v>1.054535551589984</v>
       </c>
       <c r="K3">
-        <v>1.057635860330105</v>
+        <v>1.058641175864717</v>
       </c>
       <c r="L3">
-        <v>1.053384780843071</v>
+        <v>1.059468092199708</v>
       </c>
       <c r="M3">
-        <v>1.064592959873688</v>
+        <v>1.069991465215181</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033639966647679</v>
+        <v>1.050395919622084</v>
       </c>
       <c r="D4">
-        <v>1.049482172700017</v>
+        <v>1.056514287087109</v>
       </c>
       <c r="E4">
-        <v>1.045343188391502</v>
+        <v>1.057394412396004</v>
       </c>
       <c r="F4">
-        <v>1.056790535843144</v>
+        <v>1.067968690458155</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063723001572145</v>
+        <v>1.050296967654735</v>
       </c>
       <c r="J4">
-        <v>1.052220619798087</v>
+        <v>1.05485888137687</v>
       </c>
       <c r="K4">
-        <v>1.059017934191318</v>
+        <v>1.058947456738365</v>
       </c>
       <c r="L4">
-        <v>1.054923509328607</v>
+        <v>1.059825450192252</v>
       </c>
       <c r="M4">
-        <v>1.066248659401452</v>
+        <v>1.07037441003271</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034692859556695</v>
+        <v>1.050627614821044</v>
       </c>
       <c r="D5">
-        <v>1.050275310269286</v>
+        <v>1.056694108769313</v>
       </c>
       <c r="E5">
-        <v>1.046204117628751</v>
+        <v>1.057595806529154</v>
       </c>
       <c r="F5">
-        <v>1.057697283810517</v>
+        <v>1.068180301347833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064077819378899</v>
+        <v>1.050360393150235</v>
       </c>
       <c r="J5">
-        <v>1.052816601451378</v>
+        <v>1.054994804642434</v>
       </c>
       <c r="K5">
-        <v>1.059592225998678</v>
+        <v>1.059076183188099</v>
       </c>
       <c r="L5">
-        <v>1.055563694047344</v>
+        <v>1.059975745253873</v>
       </c>
       <c r="M5">
-        <v>1.066937457628138</v>
+        <v>1.070535459514143</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034869020994765</v>
+        <v>1.050666526720588</v>
       </c>
       <c r="D6">
-        <v>1.050408044902852</v>
+        <v>1.056724309179956</v>
       </c>
       <c r="E6">
-        <v>1.046348232416633</v>
+        <v>1.057629634449963</v>
       </c>
       <c r="F6">
-        <v>1.057849059075116</v>
+        <v>1.068215844480775</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064137052029591</v>
+        <v>1.050371029137728</v>
       </c>
       <c r="J6">
-        <v>1.052916276690252</v>
+        <v>1.055017626449397</v>
       </c>
       <c r="K6">
-        <v>1.059688262054766</v>
+        <v>1.059097794890362</v>
       </c>
       <c r="L6">
-        <v>1.055670796240652</v>
+        <v>1.060000984034707</v>
       </c>
       <c r="M6">
-        <v>1.067052689705443</v>
+        <v>1.070562503872052</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.033654077464716</v>
+        <v>1.050399014923256</v>
       </c>
       <c r="D7">
-        <v>1.049492800025896</v>
+        <v>1.056516689365462</v>
       </c>
       <c r="E7">
-        <v>1.045354721721669</v>
+        <v>1.057397102564567</v>
       </c>
       <c r="F7">
-        <v>1.056802683604769</v>
+        <v>1.067971517158619</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063727765706412</v>
+        <v>1.050297816048767</v>
       </c>
       <c r="J7">
-        <v>1.052228609752966</v>
+        <v>1.054860697609863</v>
       </c>
       <c r="K7">
-        <v>1.059025634142989</v>
+        <v>1.058949176922905</v>
       </c>
       <c r="L7">
-        <v>1.05493208958956</v>
+        <v>1.059827458201399</v>
       </c>
       <c r="M7">
-        <v>1.066257891426468</v>
+        <v>1.070376561752059</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028483216652575</v>
+        <v>1.049282210708367</v>
       </c>
       <c r="D8">
-        <v>1.045602629113188</v>
+        <v>1.055649979021987</v>
       </c>
       <c r="E8">
-        <v>1.041136956072997</v>
+        <v>1.056427045951694</v>
       </c>
       <c r="F8">
-        <v>1.052359120234733</v>
+        <v>1.066952125389382</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061966605965102</v>
+        <v>1.04998985920692</v>
       </c>
       <c r="J8">
-        <v>1.049296252320436</v>
+        <v>1.054204725459441</v>
       </c>
       <c r="K8">
-        <v>1.056198380853422</v>
+        <v>1.058327692950028</v>
       </c>
       <c r="L8">
-        <v>1.05178710574375</v>
+        <v>1.059102676699379</v>
       </c>
       <c r="M8">
-        <v>1.062873657172717</v>
+        <v>1.069599863165911</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.018998981568249</v>
+        <v>1.047319466420205</v>
       </c>
       <c r="D9">
-        <v>1.038489872941063</v>
+        <v>1.054127016535561</v>
       </c>
       <c r="E9">
-        <v>1.033444061142264</v>
+        <v>1.054724927129504</v>
       </c>
       <c r="F9">
-        <v>1.044249103729338</v>
+        <v>1.065162956127726</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058665068431521</v>
+        <v>1.049439950881012</v>
       </c>
       <c r="J9">
-        <v>1.04389822516979</v>
+        <v>1.053048774617573</v>
       </c>
       <c r="K9">
-        <v>1.050987887108859</v>
+        <v>1.057231573827143</v>
       </c>
       <c r="L9">
-        <v>1.046016873435484</v>
+        <v>1.057827607789804</v>
       </c>
       <c r="M9">
-        <v>1.05666286445279</v>
+        <v>1.068233246038715</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.012402122704456</v>
+        <v>1.046014573491201</v>
       </c>
       <c r="D10">
-        <v>1.033560435823871</v>
+        <v>1.053114702773835</v>
       </c>
       <c r="E10">
-        <v>1.028124785848874</v>
+        <v>1.05359516556281</v>
       </c>
       <c r="F10">
-        <v>1.038637788983032</v>
+        <v>1.063975088296711</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056322648624724</v>
+        <v>1.049068522690467</v>
       </c>
       <c r="J10">
-        <v>1.040132175950863</v>
+        <v>1.052278191139925</v>
       </c>
       <c r="K10">
-        <v>1.047349078739397</v>
+        <v>1.056500246684689</v>
       </c>
       <c r="L10">
-        <v>1.042004151021605</v>
+        <v>1.056979054540224</v>
       </c>
       <c r="M10">
-        <v>1.052342792410337</v>
+        <v>1.067323625121013</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00947499005631</v>
+        <v>1.045450416575334</v>
       </c>
       <c r="D11">
-        <v>1.031378046947958</v>
+        <v>1.052677093046873</v>
       </c>
       <c r="E11">
-        <v>1.025772592014203</v>
+        <v>1.053107172505134</v>
       </c>
       <c r="F11">
-        <v>1.036155584949947</v>
+        <v>1.063461918425263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055272869126402</v>
+        <v>1.048906557100461</v>
       </c>
       <c r="J11">
-        <v>1.038458842423088</v>
+        <v>1.051944548836872</v>
       </c>
       <c r="K11">
-        <v>1.045731525130184</v>
+        <v>1.05618345327096</v>
       </c>
       <c r="L11">
-        <v>1.040224309120805</v>
+        <v>1.056611994326801</v>
       </c>
       <c r="M11">
-        <v>1.050426418663256</v>
+        <v>1.066930115050192</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00837659747932</v>
+        <v>1.045240996060806</v>
       </c>
       <c r="D12">
-        <v>1.030559905406833</v>
+        <v>1.052514656673263</v>
       </c>
       <c r="E12">
-        <v>1.024891202377194</v>
+        <v>1.052926092562685</v>
       </c>
       <c r="F12">
-        <v>1.035225347602683</v>
+        <v>1.063271484311816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054877424219713</v>
+        <v>1.048846226241561</v>
       </c>
       <c r="J12">
-        <v>1.03783062740717</v>
+        <v>1.051820624408913</v>
       </c>
       <c r="K12">
-        <v>1.045124146326595</v>
+        <v>1.056065764850078</v>
       </c>
       <c r="L12">
-        <v>1.039556573969794</v>
+        <v>1.056475708757539</v>
       </c>
       <c r="M12">
-        <v>1.049707432579352</v>
+        <v>1.066784003875913</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008612718391938</v>
+        <v>1.045285911449193</v>
       </c>
       <c r="D13">
-        <v>1.030735744290601</v>
+        <v>1.052549494757407</v>
       </c>
       <c r="E13">
-        <v>1.025080616516155</v>
+        <v>1.052964926539489</v>
       </c>
       <c r="F13">
-        <v>1.035425265274388</v>
+        <v>1.063312324896443</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054962500794161</v>
+        <v>1.048859175077862</v>
       </c>
       <c r="J13">
-        <v>1.037965687628675</v>
+        <v>1.051847206363215</v>
       </c>
       <c r="K13">
-        <v>1.04525473157179</v>
+        <v>1.056091010173964</v>
       </c>
       <c r="L13">
-        <v>1.039700109561218</v>
+        <v>1.056504939874041</v>
       </c>
       <c r="M13">
-        <v>1.049861986282996</v>
+        <v>1.06681534265905</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009384426594529</v>
+        <v>1.045433103097669</v>
       </c>
       <c r="D14">
-        <v>1.031310574052174</v>
+        <v>1.052663663722982</v>
       </c>
       <c r="E14">
-        <v>1.02569989472608</v>
+        <v>1.053092200648303</v>
       </c>
       <c r="F14">
-        <v>1.036078861371353</v>
+        <v>1.063446173397824</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055240294990964</v>
+        <v>1.048901573588245</v>
       </c>
       <c r="J14">
-        <v>1.03840705149964</v>
+        <v>1.051934305091495</v>
       </c>
       <c r="K14">
-        <v>1.045681454060212</v>
+        <v>1.056173725453136</v>
       </c>
       <c r="L14">
-        <v>1.040169250618848</v>
+        <v>1.056600727748909</v>
       </c>
       <c r="M14">
-        <v>1.050367134809674</v>
+        <v>1.066918036303391</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.009858411501283</v>
+        <v>1.045523810337195</v>
       </c>
       <c r="D15">
-        <v>1.031663741658941</v>
+        <v>1.052734021803304</v>
       </c>
       <c r="E15">
-        <v>1.026080424551903</v>
+        <v>1.053170642656223</v>
       </c>
       <c r="F15">
-        <v>1.036480461208141</v>
+        <v>1.063528665792989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055410717556559</v>
+        <v>1.048927674258124</v>
       </c>
       <c r="J15">
-        <v>1.038678099127419</v>
+        <v>1.051987970219492</v>
       </c>
       <c r="K15">
-        <v>1.045943496606084</v>
+        <v>1.056224686823092</v>
       </c>
       <c r="L15">
-        <v>1.04045741811937</v>
+        <v>1.056659753409854</v>
       </c>
       <c r="M15">
-        <v>1.0506774159674</v>
+        <v>1.066981316714628</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.01259485543018</v>
+        <v>1.046052033211828</v>
       </c>
       <c r="D16">
-        <v>1.033704238541425</v>
+        <v>1.053143761004901</v>
       </c>
       <c r="E16">
-        <v>1.028279834791925</v>
+        <v>1.053627577528097</v>
       </c>
       <c r="F16">
-        <v>1.038801389520071</v>
+        <v>1.064009170825574</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056391556277569</v>
+        <v>1.049079247978556</v>
       </c>
       <c r="J16">
-        <v>1.040242309759826</v>
+        <v>1.052300334532454</v>
       </c>
       <c r="K16">
-        <v>1.047455526228073</v>
+        <v>1.05652126872669</v>
       </c>
       <c r="L16">
-        <v>1.042121359506327</v>
+        <v>1.057003423019638</v>
       </c>
       <c r="M16">
-        <v>1.052468987832641</v>
+        <v>1.067349748850254</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.014292088244681</v>
+        <v>1.046383607695574</v>
       </c>
       <c r="D17">
-        <v>1.034971149870425</v>
+        <v>1.053400976023854</v>
       </c>
       <c r="E17">
-        <v>1.029646143095205</v>
+        <v>1.053914523659798</v>
       </c>
       <c r="F17">
-        <v>1.04024295591501</v>
+        <v>1.064310897560919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056997185243873</v>
+        <v>1.049174022970679</v>
       </c>
       <c r="J17">
-        <v>1.041211909130196</v>
+        <v>1.052496280180197</v>
       </c>
       <c r="K17">
-        <v>1.04839258673099</v>
+        <v>1.056707274511174</v>
       </c>
       <c r="L17">
-        <v>1.043153595813737</v>
+        <v>1.057219097727448</v>
       </c>
       <c r="M17">
-        <v>1.053580347299596</v>
+        <v>1.067580954608863</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015275274861607</v>
+        <v>1.046577093340819</v>
       </c>
       <c r="D18">
-        <v>1.035705516813143</v>
+        <v>1.053551075387345</v>
       </c>
       <c r="E18">
-        <v>1.030438391601747</v>
+        <v>1.054082010247354</v>
       </c>
       <c r="F18">
-        <v>1.041078759717822</v>
+        <v>1.064487003834695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057347025990984</v>
+        <v>1.049229194077556</v>
       </c>
       <c r="J18">
-        <v>1.041773367383029</v>
+        <v>1.05261057432369</v>
       </c>
       <c r="K18">
-        <v>1.048935130572988</v>
+        <v>1.056815756487958</v>
       </c>
       <c r="L18">
-        <v>1.043751618590828</v>
+        <v>1.05734493263218</v>
       </c>
       <c r="M18">
-        <v>1.05422418998441</v>
+        <v>1.067715847814144</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.015609381013132</v>
+        <v>1.046643081117173</v>
       </c>
       <c r="D19">
-        <v>1.035955145602953</v>
+        <v>1.053602267240757</v>
       </c>
       <c r="E19">
-        <v>1.030707741112126</v>
+        <v>1.054139138421736</v>
       </c>
       <c r="F19">
-        <v>1.041362903187002</v>
+        <v>1.064547070827075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057465739058471</v>
+        <v>1.049247987392995</v>
       </c>
       <c r="J19">
-        <v>1.041964123688965</v>
+        <v>1.052649546032353</v>
       </c>
       <c r="K19">
-        <v>1.049119448151741</v>
+        <v>1.056852743952743</v>
       </c>
       <c r="L19">
-        <v>1.043954847562399</v>
+        <v>1.057387845057785</v>
       </c>
       <c r="M19">
-        <v>1.054442986727615</v>
+        <v>1.067761848763861</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.014110696169326</v>
+        <v>1.046348024205112</v>
       </c>
       <c r="D20">
-        <v>1.034835700344134</v>
+        <v>1.053373372012539</v>
       </c>
       <c r="E20">
-        <v>1.029500039213409</v>
+        <v>1.053883725067471</v>
       </c>
       <c r="F20">
-        <v>1.040088813027822</v>
+        <v>1.064278513313532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056932561194267</v>
+        <v>1.049163865835312</v>
       </c>
       <c r="J20">
-        <v>1.041108305468682</v>
+        <v>1.052475256812459</v>
       </c>
       <c r="K20">
-        <v>1.048292467362274</v>
+        <v>1.056687319087321</v>
       </c>
       <c r="L20">
-        <v>1.043043268781106</v>
+        <v>1.057195954189967</v>
       </c>
       <c r="M20">
-        <v>1.053461565501976</v>
+        <v>1.067556144807979</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009157489128405</v>
+        <v>1.045389755154793</v>
       </c>
       <c r="D21">
-        <v>1.031141510746856</v>
+        <v>1.05263004071904</v>
       </c>
       <c r="E21">
-        <v>1.025517747493105</v>
+        <v>1.053054716544527</v>
       </c>
       <c r="F21">
-        <v>1.035886623910893</v>
+        <v>1.063406753364352</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055158645102778</v>
+        <v>1.048889092959372</v>
       </c>
       <c r="J21">
-        <v>1.038277266998812</v>
+        <v>1.051908656533024</v>
       </c>
       <c r="K21">
-        <v>1.045555977730151</v>
+        <v>1.056149368329936</v>
       </c>
       <c r="L21">
-        <v>1.040031285304053</v>
+        <v>1.056572519023355</v>
       </c>
       <c r="M21">
-        <v>1.050218581172092</v>
+        <v>1.066887794026083</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00597856896418</v>
+        <v>1.044788020732124</v>
       </c>
       <c r="D22">
-        <v>1.028775239881107</v>
+        <v>1.05216332407012</v>
       </c>
       <c r="E22">
-        <v>1.022969309988314</v>
+        <v>1.052534542296138</v>
       </c>
       <c r="F22">
-        <v>1.033196698767994</v>
+        <v>1.062859685862046</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054011338845104</v>
+        <v>1.048715351359386</v>
       </c>
       <c r="J22">
-        <v>1.036458580993216</v>
+        <v>1.051552443084685</v>
       </c>
       <c r="K22">
-        <v>1.043797423441621</v>
+        <v>1.055811038263825</v>
       </c>
       <c r="L22">
-        <v>1.03809907210714</v>
+        <v>1.056180870757871</v>
       </c>
       <c r="M22">
-        <v>1.048138011932833</v>
+        <v>1.066467900094046</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00767008066073</v>
+        <v>1.045106938220667</v>
       </c>
       <c r="D23">
-        <v>1.03003388351997</v>
+        <v>1.052410677612114</v>
       </c>
       <c r="E23">
-        <v>1.024324629295247</v>
+        <v>1.052810195731374</v>
       </c>
       <c r="F23">
-        <v>1.034627337130943</v>
+        <v>1.063149597193443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054622640304359</v>
+        <v>1.048807547769623</v>
       </c>
       <c r="J23">
-        <v>1.037426460925079</v>
+        <v>1.051741275215844</v>
       </c>
       <c r="K23">
-        <v>1.044733356435963</v>
+        <v>1.055990402364243</v>
       </c>
       <c r="L23">
-        <v>1.039127113418249</v>
+        <v>1.056388459114254</v>
       </c>
       <c r="M23">
-        <v>1.049245001617735</v>
+        <v>1.066690462486442</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.014192680357467</v>
+        <v>1.046364102593877</v>
       </c>
       <c r="D24">
-        <v>1.034896918351405</v>
+        <v>1.053385844860404</v>
       </c>
       <c r="E24">
-        <v>1.029566071757207</v>
+        <v>1.053897641268197</v>
       </c>
       <c r="F24">
-        <v>1.0401584791058</v>
+        <v>1.064293146008448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056961772553107</v>
+        <v>1.049168455746147</v>
       </c>
       <c r="J24">
-        <v>1.041155132132487</v>
+        <v>1.05248475636027</v>
       </c>
       <c r="K24">
-        <v>1.048337719424448</v>
+        <v>1.056696336121795</v>
       </c>
       <c r="L24">
-        <v>1.043093133355688</v>
+        <v>1.057206411648866</v>
       </c>
       <c r="M24">
-        <v>1.053515251443373</v>
+        <v>1.067567355181761</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021497376345385</v>
+        <v>1.047826255251105</v>
       </c>
       <c r="D25">
-        <v>1.040360663648431</v>
+        <v>1.054520219000314</v>
       </c>
       <c r="E25">
-        <v>1.035465286898982</v>
+        <v>1.055164095411742</v>
       </c>
       <c r="F25">
-        <v>1.046380547301658</v>
+        <v>1.065624642210949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059542890242118</v>
+        <v>1.049582969142593</v>
       </c>
       <c r="J25">
-        <v>1.045322311818022</v>
+        <v>1.053347612594776</v>
       </c>
       <c r="K25">
-        <v>1.05236315118583</v>
+        <v>1.057515055252496</v>
       </c>
       <c r="L25">
-        <v>1.047536911577701</v>
+        <v>1.058156987036892</v>
       </c>
       <c r="M25">
-        <v>1.058299134806187</v>
+        <v>1.068586299489538</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_115/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048995049297711</v>
+        <v>1.027127566506547</v>
       </c>
       <c r="D2">
-        <v>1.055427139596091</v>
+        <v>1.044584144876152</v>
       </c>
       <c r="E2">
-        <v>1.05617780124415</v>
+        <v>1.040033980823522</v>
       </c>
       <c r="F2">
-        <v>1.066690171761095</v>
+        <v>1.051196745671488</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049910084595802</v>
+        <v>1.061500048095595</v>
       </c>
       <c r="J2">
-        <v>1.054035845434294</v>
+        <v>1.048526101653303</v>
       </c>
       <c r="K2">
-        <v>1.058167627690303</v>
+        <v>1.055455423372812</v>
       </c>
       <c r="L2">
-        <v>1.058916226787732</v>
+        <v>1.05096239122101</v>
       </c>
       <c r="M2">
-        <v>1.069400043080337</v>
+        <v>1.06198609341264</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049845166754432</v>
+        <v>1.031109765452611</v>
       </c>
       <c r="D3">
-        <v>1.05608685637099</v>
+        <v>1.047577596294196</v>
       </c>
       <c r="E3">
-        <v>1.056915886730985</v>
+        <v>1.04327724149519</v>
       </c>
       <c r="F3">
-        <v>1.067465853250328</v>
+        <v>1.054614257435831</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050145554399191</v>
+        <v>1.062864960075611</v>
       </c>
       <c r="J3">
-        <v>1.054535551589984</v>
+        <v>1.050786834838006</v>
       </c>
       <c r="K3">
-        <v>1.058641175864717</v>
+        <v>1.057635860330105</v>
       </c>
       <c r="L3">
-        <v>1.059468092199708</v>
+        <v>1.05338478084307</v>
       </c>
       <c r="M3">
-        <v>1.069991465215181</v>
+        <v>1.064592959873688</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050395919622084</v>
+        <v>1.03363996664768</v>
       </c>
       <c r="D4">
-        <v>1.056514287087109</v>
+        <v>1.049482172700017</v>
       </c>
       <c r="E4">
-        <v>1.057394412396004</v>
+        <v>1.045343188391503</v>
       </c>
       <c r="F4">
-        <v>1.067968690458155</v>
+        <v>1.056790535843145</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050296967654735</v>
+        <v>1.063723001572146</v>
       </c>
       <c r="J4">
-        <v>1.05485888137687</v>
+        <v>1.052220619798088</v>
       </c>
       <c r="K4">
-        <v>1.058947456738365</v>
+        <v>1.059017934191318</v>
       </c>
       <c r="L4">
-        <v>1.059825450192252</v>
+        <v>1.054923509328608</v>
       </c>
       <c r="M4">
-        <v>1.07037441003271</v>
+        <v>1.066248659401452</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050627614821044</v>
+        <v>1.034692859556694</v>
       </c>
       <c r="D5">
-        <v>1.056694108769313</v>
+        <v>1.050275310269286</v>
       </c>
       <c r="E5">
-        <v>1.057595806529154</v>
+        <v>1.04620411762875</v>
       </c>
       <c r="F5">
-        <v>1.068180301347833</v>
+        <v>1.057697283810517</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050360393150235</v>
+        <v>1.064077819378898</v>
       </c>
       <c r="J5">
-        <v>1.054994804642434</v>
+        <v>1.052816601451378</v>
       </c>
       <c r="K5">
-        <v>1.059076183188099</v>
+        <v>1.059592225998678</v>
       </c>
       <c r="L5">
-        <v>1.059975745253873</v>
+        <v>1.055563694047344</v>
       </c>
       <c r="M5">
-        <v>1.070535459514143</v>
+        <v>1.066937457628138</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050666526720588</v>
+        <v>1.034869020994766</v>
       </c>
       <c r="D6">
-        <v>1.056724309179956</v>
+        <v>1.050408044902852</v>
       </c>
       <c r="E6">
-        <v>1.057629634449963</v>
+        <v>1.046348232416633</v>
       </c>
       <c r="F6">
-        <v>1.068215844480775</v>
+        <v>1.057849059075117</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050371029137728</v>
+        <v>1.064137052029591</v>
       </c>
       <c r="J6">
-        <v>1.055017626449397</v>
+        <v>1.052916276690253</v>
       </c>
       <c r="K6">
-        <v>1.059097794890362</v>
+        <v>1.059688262054766</v>
       </c>
       <c r="L6">
-        <v>1.060000984034707</v>
+        <v>1.055670796240653</v>
       </c>
       <c r="M6">
-        <v>1.070562503872052</v>
+        <v>1.067052689705444</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050399014923256</v>
+        <v>1.033654077464716</v>
       </c>
       <c r="D7">
-        <v>1.056516689365462</v>
+        <v>1.049492800025895</v>
       </c>
       <c r="E7">
-        <v>1.057397102564567</v>
+        <v>1.045354721721669</v>
       </c>
       <c r="F7">
-        <v>1.067971517158619</v>
+        <v>1.056802683604769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050297816048767</v>
+        <v>1.063727765706412</v>
       </c>
       <c r="J7">
-        <v>1.054860697609863</v>
+        <v>1.052228609752966</v>
       </c>
       <c r="K7">
-        <v>1.058949176922905</v>
+        <v>1.059025634142989</v>
       </c>
       <c r="L7">
-        <v>1.059827458201399</v>
+        <v>1.05493208958956</v>
       </c>
       <c r="M7">
-        <v>1.070376561752059</v>
+        <v>1.066257891426468</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049282210708367</v>
+        <v>1.028483216652575</v>
       </c>
       <c r="D8">
-        <v>1.055649979021987</v>
+        <v>1.045602629113188</v>
       </c>
       <c r="E8">
-        <v>1.056427045951694</v>
+        <v>1.041136956072997</v>
       </c>
       <c r="F8">
-        <v>1.066952125389382</v>
+        <v>1.052359120234733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04998985920692</v>
+        <v>1.061966605965102</v>
       </c>
       <c r="J8">
-        <v>1.054204725459441</v>
+        <v>1.049296252320436</v>
       </c>
       <c r="K8">
-        <v>1.058327692950028</v>
+        <v>1.056198380853423</v>
       </c>
       <c r="L8">
-        <v>1.059102676699379</v>
+        <v>1.051787105743751</v>
       </c>
       <c r="M8">
-        <v>1.069599863165911</v>
+        <v>1.062873657172717</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047319466420205</v>
+        <v>1.018998981568251</v>
       </c>
       <c r="D9">
-        <v>1.054127016535561</v>
+        <v>1.038489872941064</v>
       </c>
       <c r="E9">
-        <v>1.054724927129504</v>
+        <v>1.033444061142265</v>
       </c>
       <c r="F9">
-        <v>1.065162956127726</v>
+        <v>1.04424910372934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049439950881012</v>
+        <v>1.058665068431522</v>
       </c>
       <c r="J9">
-        <v>1.053048774617573</v>
+        <v>1.043898225169791</v>
       </c>
       <c r="K9">
-        <v>1.057231573827143</v>
+        <v>1.05098788710886</v>
       </c>
       <c r="L9">
-        <v>1.057827607789804</v>
+        <v>1.046016873435485</v>
       </c>
       <c r="M9">
-        <v>1.068233246038715</v>
+        <v>1.056662864452792</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046014573491201</v>
+        <v>1.012402122704457</v>
       </c>
       <c r="D10">
-        <v>1.053114702773835</v>
+        <v>1.033560435823872</v>
       </c>
       <c r="E10">
-        <v>1.05359516556281</v>
+        <v>1.028124785848875</v>
       </c>
       <c r="F10">
-        <v>1.063975088296711</v>
+        <v>1.038637788983033</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049068522690467</v>
+        <v>1.056322648624725</v>
       </c>
       <c r="J10">
-        <v>1.052278191139925</v>
+        <v>1.040132175950864</v>
       </c>
       <c r="K10">
-        <v>1.056500246684689</v>
+        <v>1.047349078739398</v>
       </c>
       <c r="L10">
-        <v>1.056979054540224</v>
+        <v>1.042004151021606</v>
       </c>
       <c r="M10">
-        <v>1.067323625121013</v>
+        <v>1.052342792410337</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045450416575334</v>
+        <v>1.00947499005631</v>
       </c>
       <c r="D11">
-        <v>1.052677093046873</v>
+        <v>1.031378046947958</v>
       </c>
       <c r="E11">
-        <v>1.053107172505134</v>
+        <v>1.025772592014202</v>
       </c>
       <c r="F11">
-        <v>1.063461918425263</v>
+        <v>1.036155584949946</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048906557100461</v>
+        <v>1.055272869126402</v>
       </c>
       <c r="J11">
-        <v>1.051944548836872</v>
+        <v>1.038458842423088</v>
       </c>
       <c r="K11">
-        <v>1.05618345327096</v>
+        <v>1.045731525130183</v>
       </c>
       <c r="L11">
-        <v>1.056611994326801</v>
+        <v>1.040224309120805</v>
       </c>
       <c r="M11">
-        <v>1.066930115050192</v>
+        <v>1.050426418663255</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045240996060806</v>
+        <v>1.00837659747932</v>
       </c>
       <c r="D12">
-        <v>1.052514656673263</v>
+        <v>1.030559905406833</v>
       </c>
       <c r="E12">
-        <v>1.052926092562685</v>
+        <v>1.024891202377194</v>
       </c>
       <c r="F12">
-        <v>1.063271484311816</v>
+        <v>1.035225347602683</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048846226241561</v>
+        <v>1.054877424219713</v>
       </c>
       <c r="J12">
-        <v>1.051820624408913</v>
+        <v>1.037830627407169</v>
       </c>
       <c r="K12">
-        <v>1.056065764850078</v>
+        <v>1.045124146326594</v>
       </c>
       <c r="L12">
-        <v>1.056475708757539</v>
+        <v>1.039556573969794</v>
       </c>
       <c r="M12">
-        <v>1.066784003875913</v>
+        <v>1.049707432579352</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045285911449193</v>
+        <v>1.008612718391939</v>
       </c>
       <c r="D13">
-        <v>1.052549494757407</v>
+        <v>1.030735744290601</v>
       </c>
       <c r="E13">
-        <v>1.052964926539489</v>
+        <v>1.025080616516156</v>
       </c>
       <c r="F13">
-        <v>1.063312324896443</v>
+        <v>1.035425265274389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048859175077862</v>
+        <v>1.054962500794161</v>
       </c>
       <c r="J13">
-        <v>1.051847206363215</v>
+        <v>1.037965687628676</v>
       </c>
       <c r="K13">
-        <v>1.056091010173964</v>
+        <v>1.045254731571791</v>
       </c>
       <c r="L13">
-        <v>1.056504939874041</v>
+        <v>1.039700109561218</v>
       </c>
       <c r="M13">
-        <v>1.06681534265905</v>
+        <v>1.049861986282997</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045433103097669</v>
+        <v>1.00938442659453</v>
       </c>
       <c r="D14">
-        <v>1.052663663722982</v>
+        <v>1.031310574052174</v>
       </c>
       <c r="E14">
-        <v>1.053092200648303</v>
+        <v>1.02569989472608</v>
       </c>
       <c r="F14">
-        <v>1.063446173397824</v>
+        <v>1.036078861371353</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048901573588245</v>
+        <v>1.055240294990964</v>
       </c>
       <c r="J14">
-        <v>1.051934305091495</v>
+        <v>1.03840705149964</v>
       </c>
       <c r="K14">
-        <v>1.056173725453136</v>
+        <v>1.045681454060212</v>
       </c>
       <c r="L14">
-        <v>1.056600727748909</v>
+        <v>1.040169250618848</v>
       </c>
       <c r="M14">
-        <v>1.066918036303391</v>
+        <v>1.050367134809675</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045523810337195</v>
+        <v>1.009858411501283</v>
       </c>
       <c r="D15">
-        <v>1.052734021803304</v>
+        <v>1.031663741658941</v>
       </c>
       <c r="E15">
-        <v>1.053170642656223</v>
+        <v>1.026080424551903</v>
       </c>
       <c r="F15">
-        <v>1.063528665792989</v>
+        <v>1.036480461208141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048927674258124</v>
+        <v>1.055410717556559</v>
       </c>
       <c r="J15">
-        <v>1.051987970219492</v>
+        <v>1.03867809912742</v>
       </c>
       <c r="K15">
-        <v>1.056224686823092</v>
+        <v>1.045943496606084</v>
       </c>
       <c r="L15">
-        <v>1.056659753409854</v>
+        <v>1.04045741811937</v>
       </c>
       <c r="M15">
-        <v>1.066981316714628</v>
+        <v>1.050677415967401</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046052033211828</v>
+        <v>1.01259485543018</v>
       </c>
       <c r="D16">
-        <v>1.053143761004901</v>
+        <v>1.033704238541426</v>
       </c>
       <c r="E16">
-        <v>1.053627577528097</v>
+        <v>1.028279834791926</v>
       </c>
       <c r="F16">
-        <v>1.064009170825574</v>
+        <v>1.038801389520072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049079247978556</v>
+        <v>1.056391556277569</v>
       </c>
       <c r="J16">
-        <v>1.052300334532454</v>
+        <v>1.040242309759827</v>
       </c>
       <c r="K16">
-        <v>1.05652126872669</v>
+        <v>1.047455526228074</v>
       </c>
       <c r="L16">
-        <v>1.057003423019638</v>
+        <v>1.042121359506327</v>
       </c>
       <c r="M16">
-        <v>1.067349748850254</v>
+        <v>1.052468987832642</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046383607695574</v>
+        <v>1.014292088244682</v>
       </c>
       <c r="D17">
-        <v>1.053400976023854</v>
+        <v>1.034971149870426</v>
       </c>
       <c r="E17">
-        <v>1.053914523659798</v>
+        <v>1.029646143095206</v>
       </c>
       <c r="F17">
-        <v>1.064310897560919</v>
+        <v>1.040242955915011</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049174022970679</v>
+        <v>1.056997185243874</v>
       </c>
       <c r="J17">
-        <v>1.052496280180197</v>
+        <v>1.041211909130196</v>
       </c>
       <c r="K17">
-        <v>1.056707274511174</v>
+        <v>1.048392586730992</v>
       </c>
       <c r="L17">
-        <v>1.057219097727448</v>
+        <v>1.043153595813738</v>
       </c>
       <c r="M17">
-        <v>1.067580954608863</v>
+        <v>1.053580347299597</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046577093340819</v>
+        <v>1.015275274861608</v>
       </c>
       <c r="D18">
-        <v>1.053551075387345</v>
+        <v>1.035705516813143</v>
       </c>
       <c r="E18">
-        <v>1.054082010247354</v>
+        <v>1.030438391601747</v>
       </c>
       <c r="F18">
-        <v>1.064487003834695</v>
+        <v>1.041078759717823</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049229194077556</v>
+        <v>1.057347025990985</v>
       </c>
       <c r="J18">
-        <v>1.05261057432369</v>
+        <v>1.04177336738303</v>
       </c>
       <c r="K18">
-        <v>1.056815756487958</v>
+        <v>1.048935130572988</v>
       </c>
       <c r="L18">
-        <v>1.05734493263218</v>
+        <v>1.043751618590829</v>
       </c>
       <c r="M18">
-        <v>1.067715847814144</v>
+        <v>1.054224189984411</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046643081117173</v>
+        <v>1.015609381013133</v>
       </c>
       <c r="D19">
-        <v>1.053602267240757</v>
+        <v>1.035955145602953</v>
       </c>
       <c r="E19">
-        <v>1.054139138421736</v>
+        <v>1.030707741112127</v>
       </c>
       <c r="F19">
-        <v>1.064547070827075</v>
+        <v>1.041362903187002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049247987392995</v>
+        <v>1.057465739058471</v>
       </c>
       <c r="J19">
-        <v>1.052649546032353</v>
+        <v>1.041964123688966</v>
       </c>
       <c r="K19">
-        <v>1.056852743952743</v>
+        <v>1.049119448151742</v>
       </c>
       <c r="L19">
-        <v>1.057387845057785</v>
+        <v>1.043954847562399</v>
       </c>
       <c r="M19">
-        <v>1.067761848763861</v>
+        <v>1.054442986727616</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046348024205112</v>
+        <v>1.014110696169327</v>
       </c>
       <c r="D20">
-        <v>1.053373372012539</v>
+        <v>1.034835700344135</v>
       </c>
       <c r="E20">
-        <v>1.053883725067471</v>
+        <v>1.029500039213409</v>
       </c>
       <c r="F20">
-        <v>1.064278513313532</v>
+        <v>1.040088813027823</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049163865835312</v>
+        <v>1.056932561194267</v>
       </c>
       <c r="J20">
-        <v>1.052475256812459</v>
+        <v>1.041108305468683</v>
       </c>
       <c r="K20">
-        <v>1.056687319087321</v>
+        <v>1.048292467362274</v>
       </c>
       <c r="L20">
-        <v>1.057195954189967</v>
+        <v>1.043043268781106</v>
       </c>
       <c r="M20">
-        <v>1.067556144807979</v>
+        <v>1.053461565501977</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045389755154793</v>
+        <v>1.009157489128405</v>
       </c>
       <c r="D21">
-        <v>1.05263004071904</v>
+        <v>1.031141510746856</v>
       </c>
       <c r="E21">
-        <v>1.053054716544527</v>
+        <v>1.025517747493106</v>
       </c>
       <c r="F21">
-        <v>1.063406753364352</v>
+        <v>1.035886623910893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048889092959372</v>
+        <v>1.055158645102779</v>
       </c>
       <c r="J21">
-        <v>1.051908656533024</v>
+        <v>1.038277266998813</v>
       </c>
       <c r="K21">
-        <v>1.056149368329936</v>
+        <v>1.045555977730151</v>
       </c>
       <c r="L21">
-        <v>1.056572519023355</v>
+        <v>1.040031285304053</v>
       </c>
       <c r="M21">
-        <v>1.066887794026083</v>
+        <v>1.050218581172093</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044788020732124</v>
+        <v>1.00597856896418</v>
       </c>
       <c r="D22">
-        <v>1.05216332407012</v>
+        <v>1.028775239881107</v>
       </c>
       <c r="E22">
-        <v>1.052534542296138</v>
+        <v>1.022969309988315</v>
       </c>
       <c r="F22">
-        <v>1.062859685862046</v>
+        <v>1.033196698767995</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048715351359386</v>
+        <v>1.054011338845104</v>
       </c>
       <c r="J22">
-        <v>1.051552443084685</v>
+        <v>1.036458580993217</v>
       </c>
       <c r="K22">
-        <v>1.055811038263825</v>
+        <v>1.043797423441622</v>
       </c>
       <c r="L22">
-        <v>1.056180870757871</v>
+        <v>1.038099072107141</v>
       </c>
       <c r="M22">
-        <v>1.066467900094046</v>
+        <v>1.048138011932833</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045106938220667</v>
+        <v>1.007670080660729</v>
       </c>
       <c r="D23">
-        <v>1.052410677612114</v>
+        <v>1.030033883519969</v>
       </c>
       <c r="E23">
-        <v>1.052810195731374</v>
+        <v>1.024324629295246</v>
       </c>
       <c r="F23">
-        <v>1.063149597193443</v>
+        <v>1.034627337130942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048807547769623</v>
+        <v>1.054622640304358</v>
       </c>
       <c r="J23">
-        <v>1.051741275215844</v>
+        <v>1.037426460925078</v>
       </c>
       <c r="K23">
-        <v>1.055990402364243</v>
+        <v>1.044733356435962</v>
       </c>
       <c r="L23">
-        <v>1.056388459114254</v>
+        <v>1.039127113418248</v>
       </c>
       <c r="M23">
-        <v>1.066690462486442</v>
+        <v>1.049245001617735</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046364102593877</v>
+        <v>1.014192680357468</v>
       </c>
       <c r="D24">
-        <v>1.053385844860404</v>
+        <v>1.034896918351406</v>
       </c>
       <c r="E24">
-        <v>1.053897641268197</v>
+        <v>1.029566071757208</v>
       </c>
       <c r="F24">
-        <v>1.064293146008448</v>
+        <v>1.0401584791058</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049168455746147</v>
+        <v>1.056961772553108</v>
       </c>
       <c r="J24">
-        <v>1.05248475636027</v>
+        <v>1.041155132132489</v>
       </c>
       <c r="K24">
-        <v>1.056696336121795</v>
+        <v>1.048337719424449</v>
       </c>
       <c r="L24">
-        <v>1.057206411648866</v>
+        <v>1.043093133355689</v>
       </c>
       <c r="M24">
-        <v>1.067567355181761</v>
+        <v>1.053515251443373</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047826255251105</v>
+        <v>1.021497376345386</v>
       </c>
       <c r="D25">
-        <v>1.054520219000314</v>
+        <v>1.040360663648432</v>
       </c>
       <c r="E25">
-        <v>1.055164095411742</v>
+        <v>1.035465286898983</v>
       </c>
       <c r="F25">
-        <v>1.065624642210949</v>
+        <v>1.046380547301659</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049582969142593</v>
+        <v>1.059542890242119</v>
       </c>
       <c r="J25">
-        <v>1.053347612594776</v>
+        <v>1.045322311818023</v>
       </c>
       <c r="K25">
-        <v>1.057515055252496</v>
+        <v>1.052363151185831</v>
       </c>
       <c r="L25">
-        <v>1.058156987036892</v>
+        <v>1.047536911577702</v>
       </c>
       <c r="M25">
-        <v>1.068586299489538</v>
+        <v>1.058299134806188</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
